--- a/Data/Polls/Raw/Federal/raw_0002.xlsx
+++ b/Data/Polls/Raw/Federal/raw_0002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">pollster</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Leger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://leger360.com/wp-content/uploads/2020/12/Legers-North-American-Tracker-December-14th-2020-min.pdf?x43558</t>
+  </si>
+  <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">BC</t>
   </si>
   <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIB</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">votesum</t>
   </si>
 </sst>
 </file>
@@ -81,11 +90,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,12 +111,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,16 +155,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,186 +185,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44179</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="G8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H8" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>66</v>
@@ -384,10 +407,13 @@
       <c r="G10" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="H10" s="1" t="n">
+        <v>1528</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>72</v>
@@ -406,6 +432,42 @@
       </c>
       <c r="G11" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <f aca="false">SUM(B4:B9)</f>
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">SUM(C4:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">SUM(D4:D9)</f>
+        <v>101</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">SUM(E4:E9)</f>
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <f aca="false">SUM(F4:F9)</f>
+        <v>100</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">SUM(G4:G9)</f>
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">SUM(H4:H9)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Polls/Raw/Federal/raw_0002.xlsx
+++ b/Data/Polls/Raw/Federal/raw_0002.xlsx
@@ -188,10 +188,10 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -266,8 +266,8 @@
       <c r="G4" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>33</v>
+      <c r="H4" s="0" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,8 +292,8 @@
       <c r="G5" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>33</v>
+      <c r="H5" s="0" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,8 +318,8 @@
       <c r="G6" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>18</v>
+      <c r="H6" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,8 +329,8 @@
       <c r="C7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>8</v>
+      <c r="H7" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,8 +355,8 @@
       <c r="G8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>6</v>
+      <c r="H8" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,7 +381,7 @@
       <c r="G9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -408,7 +408,7 @@
         <v>171</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>1528</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,7 +434,7 @@
         <v>127</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1528</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +467,7 @@
       </c>
       <c r="H13" s="1" t="n">
         <f aca="false">SUM(H4:H9)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
